--- a/results/mp/tinybert/toy-spam/confidence/42/stop-words-masking-0.5/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/toy-spam/confidence/42/stop-words-masking-0.5/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="190">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,556 +43,544 @@
     <t>poorly</t>
   </si>
   <si>
+    <t>crap</t>
+  </si>
+  <si>
     <t>disappointing</t>
   </si>
   <si>
-    <t>garbage</t>
-  </si>
-  <si>
-    <t>terrible</t>
+    <t>awful</t>
+  </si>
+  <si>
+    <t>returned</t>
+  </si>
+  <si>
+    <t>ripped</t>
+  </si>
+  <si>
+    <t>trash</t>
   </si>
   <si>
     <t>poor</t>
   </si>
   <si>
-    <t>crap</t>
-  </si>
-  <si>
-    <t>ripped</t>
+    <t>inches</t>
+  </si>
+  <si>
+    <t>however</t>
+  </si>
+  <si>
+    <t>disappointed</t>
+  </si>
+  <si>
+    <t>broke</t>
+  </si>
+  <si>
+    <t>waste</t>
+  </si>
+  <si>
+    <t>loose</t>
+  </si>
+  <si>
+    <t>junk</t>
+  </si>
+  <si>
+    <t>pool</t>
+  </si>
+  <si>
+    <t>tiny</t>
+  </si>
+  <si>
+    <t>instead</t>
+  </si>
+  <si>
+    <t>missing</t>
   </si>
   <si>
     <t>thin</t>
   </si>
   <si>
-    <t>however</t>
-  </si>
-  <si>
-    <t>junk</t>
-  </si>
-  <si>
-    <t>returned</t>
-  </si>
-  <si>
-    <t>disappointed</t>
-  </si>
-  <si>
-    <t>instead</t>
-  </si>
-  <si>
-    <t>waste</t>
-  </si>
-  <si>
-    <t>pool</t>
-  </si>
-  <si>
     <t>water</t>
   </si>
   <si>
-    <t>broke</t>
-  </si>
-  <si>
     <t>smaller</t>
   </si>
   <si>
+    <t>worst</t>
+  </si>
+  <si>
+    <t>noise</t>
+  </si>
+  <si>
+    <t>glue</t>
+  </si>
+  <si>
+    <t>small</t>
+  </si>
+  <si>
+    <t>guess</t>
+  </si>
+  <si>
+    <t>rip</t>
+  </si>
+  <si>
+    <t>broken</t>
+  </si>
+  <si>
+    <t>okay</t>
+  </si>
+  <si>
+    <t>un</t>
+  </si>
+  <si>
     <t>probably</t>
   </si>
   <si>
-    <t>worst</t>
-  </si>
-  <si>
-    <t>tiny</t>
-  </si>
-  <si>
-    <t>small</t>
-  </si>
-  <si>
-    <t>missing</t>
-  </si>
-  <si>
-    <t>broken</t>
-  </si>
-  <si>
-    <t>guess</t>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>plastic</t>
+  </si>
+  <si>
+    <t>cheap</t>
   </si>
   <si>
     <t>low</t>
   </si>
   <si>
-    <t>plastic</t>
+    <t>lasted</t>
   </si>
   <si>
     <t>fell</t>
   </si>
   <si>
-    <t>rip</t>
+    <t>apart</t>
+  </si>
+  <si>
+    <t>paint</t>
+  </si>
+  <si>
+    <t>di</t>
   </si>
   <si>
     <t>short</t>
   </si>
   <si>
-    <t>apart</t>
-  </si>
-  <si>
-    <t>okay</t>
+    <t>return</t>
+  </si>
+  <si>
+    <t>fl</t>
+  </si>
+  <si>
+    <t>light</t>
+  </si>
+  <si>
+    <t>pay</t>
+  </si>
+  <si>
+    <t>difficult</t>
+  </si>
+  <si>
+    <t>half</t>
   </si>
   <si>
     <t>description</t>
   </si>
   <si>
-    <t>ok</t>
-  </si>
-  <si>
-    <t>paint</t>
-  </si>
-  <si>
-    <t>cheap</t>
-  </si>
-  <si>
-    <t>di</t>
-  </si>
-  <si>
-    <t>difficult</t>
+    <t>maybe</t>
+  </si>
+  <si>
+    <t>thought</t>
+  </si>
+  <si>
+    <t>less</t>
   </si>
   <si>
     <t>bad</t>
   </si>
   <si>
-    <t>lasted</t>
-  </si>
-  <si>
-    <t>paid</t>
-  </si>
-  <si>
-    <t>un</t>
-  </si>
-  <si>
-    <t>less</t>
-  </si>
-  <si>
-    <t>instructions</t>
+    <t>actually</t>
+  </si>
+  <si>
+    <t>bit</t>
+  </si>
+  <si>
+    <t>though</t>
+  </si>
+  <si>
+    <t>hold</t>
+  </si>
+  <si>
+    <t>size</t>
+  </si>
+  <si>
+    <t>back</t>
+  </si>
+  <si>
+    <t>sound</t>
+  </si>
+  <si>
+    <t>minutes</t>
+  </si>
+  <si>
+    <t>hard</t>
+  </si>
+  <si>
+    <t>color</t>
+  </si>
+  <si>
+    <t>fit</t>
+  </si>
+  <si>
+    <t>picture</t>
+  </si>
+  <si>
+    <t>item</t>
+  </si>
+  <si>
+    <t>seems</t>
   </si>
   <si>
     <t>tried</t>
   </si>
   <si>
-    <t>maybe</t>
-  </si>
-  <si>
-    <t>pay</t>
-  </si>
-  <si>
-    <t>half</t>
-  </si>
-  <si>
-    <t>minutes</t>
-  </si>
-  <si>
-    <t>light</t>
-  </si>
-  <si>
-    <t>looked</t>
-  </si>
-  <si>
-    <t>return</t>
-  </si>
-  <si>
-    <t>thought</t>
-  </si>
-  <si>
-    <t>sound</t>
-  </si>
-  <si>
-    <t>size</t>
-  </si>
-  <si>
-    <t>bit</t>
-  </si>
-  <si>
-    <t>fl</t>
-  </si>
-  <si>
-    <t>fit</t>
+    <t>piece</t>
   </si>
   <si>
     <t>work</t>
   </si>
   <si>
-    <t>item</t>
-  </si>
-  <si>
-    <t>hold</t>
-  </si>
-  <si>
-    <t>actually</t>
+    <t>would</t>
+  </si>
+  <si>
+    <t>parts</t>
+  </si>
+  <si>
+    <t>stick</t>
+  </si>
+  <si>
+    <t>worked</t>
   </si>
   <si>
     <t>money</t>
   </si>
   <si>
-    <t>color</t>
-  </si>
-  <si>
-    <t>though</t>
+    <t>1</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>box</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>could</t>
+  </si>
+  <si>
+    <t>product</t>
+  </si>
+  <si>
+    <t>nothing</t>
+  </si>
+  <si>
+    <t>look</t>
+  </si>
+  <si>
+    <t>stay</t>
+  </si>
+  <si>
+    <t>2</t>
   </si>
   <si>
     <t>used</t>
   </si>
   <si>
-    <t>would</t>
-  </si>
-  <si>
-    <t>seems</t>
-  </si>
-  <si>
-    <t>worked</t>
-  </si>
-  <si>
-    <t>nothing</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>picture</t>
-  </si>
-  <si>
-    <t>look</t>
-  </si>
-  <si>
-    <t>price</t>
-  </si>
-  <si>
-    <t>stick</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>back</t>
-  </si>
-  <si>
-    <t>away</t>
-  </si>
-  <si>
-    <t>rec</t>
-  </si>
-  <si>
-    <t>box</t>
-  </si>
-  <si>
-    <t>parts</t>
-  </si>
-  <si>
-    <t>piece</t>
-  </si>
-  <si>
-    <t>product</t>
-  </si>
-  <si>
-    <t>hard</t>
-  </si>
-  <si>
-    <t>could</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>stay</t>
-  </si>
-  <si>
-    <t>bigger</t>
+    <t>need</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>3</t>
   </si>
   <si>
     <t>pieces</t>
   </si>
   <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>use</t>
+  </si>
+  <si>
+    <t>way</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>make</t>
+  </si>
+  <si>
+    <t>ordered</t>
+  </si>
+  <si>
+    <t>put</t>
+  </si>
+  <si>
     <t>expected</t>
   </si>
   <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>put</t>
-  </si>
-  <si>
-    <t>something</t>
-  </si>
-  <si>
-    <t>ordered</t>
-  </si>
-  <si>
-    <t>way</t>
-  </si>
-  <si>
-    <t>3</t>
+    <t>buy</t>
+  </si>
+  <si>
+    <t>made</t>
+  </si>
+  <si>
+    <t>wanted</t>
   </si>
   <si>
     <t>never</t>
   </si>
   <si>
-    <t>make</t>
+    <t>two</t>
+  </si>
+  <si>
+    <t>even</t>
+  </si>
+  <si>
+    <t>little</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>4</t>
   </si>
   <si>
     <t>looks</t>
   </si>
   <si>
-    <t>34</t>
-  </si>
-  <si>
-    <t>need</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>buy</t>
-  </si>
-  <si>
-    <t>wanted</t>
-  </si>
-  <si>
-    <t>use</t>
-  </si>
-  <si>
-    <t>even</t>
-  </si>
-  <si>
-    <t>two</t>
-  </si>
-  <si>
-    <t>right</t>
-  </si>
-  <si>
-    <t>know</t>
-  </si>
-  <si>
-    <t>little</t>
-  </si>
-  <si>
-    <t>made</t>
+    <t>first</t>
   </si>
   <si>
     <t>think</t>
   </si>
   <si>
-    <t>like</t>
-  </si>
-  <si>
     <t>toy</t>
   </si>
   <si>
+    <t>get</t>
+  </si>
+  <si>
+    <t>came</t>
+  </si>
+  <si>
     <t>one</t>
   </si>
   <si>
     <t>much</t>
   </si>
   <si>
-    <t>first</t>
-  </si>
-  <si>
-    <t>also</t>
+    <t>got</t>
   </si>
   <si>
     <t>set</t>
   </si>
   <si>
-    <t>get</t>
+    <t>bought</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>really</t>
+  </si>
+  <si>
+    <t>old</t>
+  </si>
+  <si>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>fantastic</t>
+  </si>
+  <si>
+    <t>awesome</t>
+  </si>
+  <si>
+    <t>amazing</t>
+  </si>
+  <si>
+    <t>wonderful</t>
+  </si>
+  <si>
+    <t>favorite</t>
+  </si>
+  <si>
+    <t>excellent</t>
+  </si>
+  <si>
+    <t>classic</t>
+  </si>
+  <si>
+    <t>enjoyable</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>loves</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>expansion</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>pleased</t>
+  </si>
+  <si>
+    <t>loved</t>
+  </si>
+  <si>
+    <t>perfect</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>elf</t>
+  </si>
+  <si>
+    <t>grandchildren</t>
+  </si>
+  <si>
+    <t>glad</t>
+  </si>
+  <si>
+    <t>highly</t>
+  </si>
+  <si>
+    <t>learn</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>enjoys</t>
+  </si>
+  <si>
+    <t>hit</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>enjoy</t>
+  </si>
+  <si>
+    <t>christmas</t>
+  </si>
+  <si>
+    <t>every</t>
+  </si>
+  <si>
+    <t>birthday</t>
+  </si>
+  <si>
+    <t>fun</t>
+  </si>
+  <si>
+    <t>enjoyed</t>
+  </si>
+  <si>
+    <t>everyone</t>
+  </si>
+  <si>
+    <t>family</t>
+  </si>
+  <si>
+    <t>sturdy</t>
+  </si>
+  <si>
+    <t>book</t>
+  </si>
+  <si>
+    <t>game</t>
+  </si>
+  <si>
+    <t>grand</t>
+  </si>
+  <si>
+    <t>easy</t>
+  </si>
+  <si>
+    <t>ages</t>
+  </si>
+  <si>
+    <t>cute</t>
+  </si>
+  <si>
+    <t>daughter</t>
+  </si>
+  <si>
+    <t>playing</t>
+  </si>
+  <si>
+    <t>games</t>
+  </si>
+  <si>
+    <t>children</t>
+  </si>
+  <si>
+    <t>play</t>
+  </si>
+  <si>
+    <t>played</t>
+  </si>
+  <si>
+    <t>grandson</t>
+  </si>
+  <si>
+    <t>together</t>
+  </si>
+  <si>
+    <t>nice</t>
   </si>
   <si>
     <t>recommend</t>
   </si>
   <si>
-    <t>got</t>
-  </si>
-  <si>
-    <t>bought</t>
-  </si>
-  <si>
-    <t>time</t>
-  </si>
-  <si>
-    <t>really</t>
-  </si>
-  <si>
-    <t>old</t>
-  </si>
-  <si>
-    <t>negative</t>
-  </si>
-  <si>
-    <t>wonderful</t>
-  </si>
-  <si>
-    <t>awesome</t>
-  </si>
-  <si>
-    <t>amazing</t>
-  </si>
-  <si>
-    <t>fantastic</t>
-  </si>
-  <si>
-    <t>favorite</t>
-  </si>
-  <si>
-    <t>excellent</t>
-  </si>
-  <si>
-    <t>enjoyable</t>
-  </si>
-  <si>
-    <t>classic</t>
-  </si>
-  <si>
-    <t>beautiful</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>loves</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>challenge</t>
-  </si>
-  <si>
-    <t>pleased</t>
-  </si>
-  <si>
-    <t>loved</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>perfect</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>expansion</t>
-  </si>
-  <si>
-    <t>elf</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>highly</t>
-  </si>
-  <si>
-    <t>learn</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>sturdy</t>
-  </si>
-  <si>
-    <t>every</t>
-  </si>
-  <si>
-    <t>glad</t>
-  </si>
-  <si>
-    <t>grandchildren</t>
-  </si>
-  <si>
-    <t>christmas</t>
-  </si>
-  <si>
-    <t>enjoy</t>
-  </si>
-  <si>
-    <t>fun</t>
-  </si>
-  <si>
-    <t>enjoyed</t>
-  </si>
-  <si>
-    <t>everyone</t>
-  </si>
-  <si>
-    <t>birthday</t>
-  </si>
-  <si>
-    <t>book</t>
-  </si>
-  <si>
-    <t>game</t>
-  </si>
-  <si>
-    <t>games</t>
-  </si>
-  <si>
-    <t>family</t>
-  </si>
-  <si>
-    <t>easy</t>
-  </si>
-  <si>
-    <t>lots</t>
-  </si>
-  <si>
-    <t>ages</t>
-  </si>
-  <si>
-    <t>cute</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>playing</t>
-  </si>
-  <si>
-    <t>children</t>
-  </si>
-  <si>
-    <t>play</t>
-  </si>
-  <si>
-    <t>played</t>
-  </si>
-  <si>
-    <t>grandson</t>
-  </si>
-  <si>
-    <t>daughter</t>
-  </si>
-  <si>
-    <t>together</t>
+    <t>year</t>
   </si>
   <si>
     <t>well</t>
   </si>
   <si>
+    <t>son</t>
+  </si>
+  <si>
+    <t>gift</t>
+  </si>
+  <si>
     <t>good</t>
   </si>
   <si>
     <t>kids</t>
-  </si>
-  <si>
-    <t>year</t>
-  </si>
-  <si>
-    <t>son</t>
-  </si>
-  <si>
-    <t>gift</t>
   </si>
   <si>
     <t>positive</t>
@@ -953,7 +941,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q129"/>
+  <dimension ref="A1:Q124"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -961,10 +949,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="J1" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -1022,13 +1010,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9782608695652174</v>
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D3">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -1040,19 +1028,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="K3">
-        <v>0.8928571428571429</v>
+        <v>0.95</v>
       </c>
       <c r="L3">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="M3">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -1064,7 +1052,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -1072,13 +1060,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8863636363636364</v>
+        <v>0.9047619047619048</v>
       </c>
       <c r="C4">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="D4">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -1090,19 +1078,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="K4">
-        <v>0.8615384615384616</v>
+        <v>0.9076923076923077</v>
       </c>
       <c r="L4">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="M4">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -1114,7 +1102,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -1122,13 +1110,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8823529411764706</v>
+        <v>0.8636363636363636</v>
       </c>
       <c r="C5">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="D5">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -1140,19 +1128,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="K5">
-        <v>0.8518518518518519</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="L5">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M5">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -1164,7 +1152,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -1172,13 +1160,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.8421052631578947</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="C6">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D6">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -1193,16 +1181,16 @@
         <v>3</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="K6">
-        <v>0.85</v>
+        <v>0.875</v>
       </c>
       <c r="L6">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="M6">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -1214,7 +1202,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1222,13 +1210,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.8169014084507042</v>
+        <v>0.8157894736842105</v>
       </c>
       <c r="C7">
-        <v>58</v>
+        <v>31</v>
       </c>
       <c r="D7">
-        <v>58</v>
+        <v>31</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1240,19 +1228,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="K7">
-        <v>0.8064516129032258</v>
+        <v>0.8494623655913979</v>
       </c>
       <c r="L7">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="M7">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -1264,7 +1252,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1272,13 +1260,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.8095238095238095</v>
+        <v>0.8148148148148148</v>
       </c>
       <c r="C8">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D8">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1290,19 +1278,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="K8">
-        <v>0.796875</v>
+        <v>0.78125</v>
       </c>
       <c r="L8">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M8">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1314,7 +1302,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1322,13 +1310,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.7777777777777778</v>
+        <v>0.7894736842105263</v>
       </c>
       <c r="C9">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D9">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1340,19 +1328,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="K9">
-        <v>0.7916666666666666</v>
+        <v>0.7169811320754716</v>
       </c>
       <c r="L9">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="M9">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1364,7 +1352,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1372,13 +1360,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.7586206896551724</v>
+        <v>0.7746478873239436</v>
       </c>
       <c r="C10">
-        <v>22</v>
+        <v>55</v>
       </c>
       <c r="D10">
-        <v>22</v>
+        <v>55</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1390,31 +1378,31 @@
         <v>0</v>
       </c>
       <c r="H10">
+        <v>16</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="K10">
+        <v>0.7083333333333334</v>
+      </c>
+      <c r="L10">
+        <v>17</v>
+      </c>
+      <c r="M10">
+        <v>17</v>
+      </c>
+      <c r="N10">
+        <v>1</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q10">
         <v>7</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="K10">
-        <v>0.6981132075471698</v>
-      </c>
-      <c r="L10">
-        <v>37</v>
-      </c>
-      <c r="M10">
-        <v>37</v>
-      </c>
-      <c r="N10">
-        <v>1</v>
-      </c>
-      <c r="O10">
-        <v>0</v>
-      </c>
-      <c r="P10" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q10">
-        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1422,13 +1410,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.75</v>
+        <v>0.7727272727272727</v>
       </c>
       <c r="C11">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="D11">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1440,19 +1428,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="K11">
-        <v>0.625</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L11">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="M11">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1464,7 +1452,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1472,13 +1460,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.7454545454545455</v>
+        <v>0.734375</v>
       </c>
       <c r="C12">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="D12">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1490,19 +1478,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="K12">
-        <v>0.6212338593974175</v>
+        <v>0.6269727403156384</v>
       </c>
       <c r="L12">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="M12">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1514,7 +1502,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>264</v>
+        <v>260</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1522,13 +1510,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.7368421052631579</v>
+        <v>0.7311827956989247</v>
       </c>
       <c r="C13">
-        <v>28</v>
+        <v>136</v>
       </c>
       <c r="D13">
-        <v>28</v>
+        <v>136</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1540,19 +1528,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="K13">
-        <v>0.5850622406639004</v>
+        <v>0.6182572614107884</v>
       </c>
       <c r="L13">
-        <v>282</v>
+        <v>298</v>
       </c>
       <c r="M13">
-        <v>282</v>
+        <v>298</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1564,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>200</v>
+        <v>184</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1572,13 +1560,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.7150537634408602</v>
+        <v>0.7184466019417476</v>
       </c>
       <c r="C14">
-        <v>133</v>
+        <v>148</v>
       </c>
       <c r="D14">
-        <v>133</v>
+        <v>148</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1590,19 +1578,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="K14">
-        <v>0.5652173913043478</v>
+        <v>0.5270491803278688</v>
       </c>
       <c r="L14">
-        <v>39</v>
+        <v>643</v>
       </c>
       <c r="M14">
-        <v>39</v>
+        <v>643</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1614,7 +1602,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>30</v>
+        <v>577</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1622,13 +1610,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.7083333333333334</v>
+        <v>0.7094594594594594</v>
       </c>
       <c r="C15">
-        <v>34</v>
+        <v>105</v>
       </c>
       <c r="D15">
-        <v>34</v>
+        <v>105</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1640,19 +1628,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="K15">
-        <v>0.5491803278688525</v>
+        <v>0.4680851063829787</v>
       </c>
       <c r="L15">
-        <v>670</v>
+        <v>22</v>
       </c>
       <c r="M15">
-        <v>670</v>
+        <v>22</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1664,7 +1652,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>550</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1672,13 +1660,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.6959459459459459</v>
+        <v>0.6956521739130435</v>
       </c>
       <c r="C16">
-        <v>103</v>
+        <v>16</v>
       </c>
       <c r="D16">
-        <v>103</v>
+        <v>16</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1690,19 +1678,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>45</v>
+        <v>7</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="K16">
-        <v>0.5</v>
+        <v>0.4603174603174603</v>
       </c>
       <c r="L16">
-        <v>15</v>
+        <v>87</v>
       </c>
       <c r="M16">
-        <v>15</v>
+        <v>87</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1714,7 +1702,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>15</v>
+        <v>102</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1722,13 +1710,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.6857142857142857</v>
+        <v>0.6727272727272727</v>
       </c>
       <c r="C17">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="D17">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1740,19 +1728,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="K17">
-        <v>0.4528301886792453</v>
+        <v>0.4339622641509434</v>
       </c>
       <c r="L17">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M17">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1764,7 +1752,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1772,13 +1760,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.6666666666666666</v>
+        <v>0.6571428571428571</v>
       </c>
       <c r="C18">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D18">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1790,31 +1778,31 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="K18">
-        <v>0.4342507645259939</v>
+        <v>0.4294478527607362</v>
       </c>
       <c r="L18">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="M18">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="N18">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q18">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1822,13 +1810,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.6601941747572816</v>
+        <v>0.6571428571428571</v>
       </c>
       <c r="C19">
-        <v>136</v>
+        <v>23</v>
       </c>
       <c r="D19">
-        <v>136</v>
+        <v>23</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1840,19 +1828,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>70</v>
+        <v>12</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="K19">
-        <v>0.4338624338624338</v>
+        <v>0.3915662650602409</v>
       </c>
       <c r="L19">
-        <v>82</v>
+        <v>65</v>
       </c>
       <c r="M19">
-        <v>82</v>
+        <v>65</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1864,7 +1852,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>107</v>
+        <v>101</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1872,49 +1860,49 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.6470588235294118</v>
+        <v>0.6458333333333334</v>
       </c>
       <c r="C20">
+        <v>31</v>
+      </c>
+      <c r="D20">
+        <v>31</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20" t="b">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>17</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="K20">
+        <v>0.3583333333333333</v>
+      </c>
+      <c r="L20">
+        <v>43</v>
+      </c>
+      <c r="M20">
+        <v>43</v>
+      </c>
+      <c r="N20">
+        <v>1</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q20">
         <v>77</v>
-      </c>
-      <c r="D20">
-        <v>77</v>
-      </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20" t="b">
-        <v>0</v>
-      </c>
-      <c r="H20">
-        <v>42</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="K20">
-        <v>0.4216867469879518</v>
-      </c>
-      <c r="L20">
-        <v>70</v>
-      </c>
-      <c r="M20">
-        <v>70</v>
-      </c>
-      <c r="N20">
-        <v>1</v>
-      </c>
-      <c r="O20">
-        <v>0</v>
-      </c>
-      <c r="P20" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q20">
-        <v>96</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1922,13 +1910,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.6052631578947368</v>
+        <v>0.6444444444444445</v>
       </c>
       <c r="C21">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="D21">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1940,19 +1928,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="K21">
-        <v>0.4166666666666667</v>
+        <v>0.328125</v>
       </c>
       <c r="L21">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="M21">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1964,7 +1952,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>70</v>
+        <v>43</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1972,13 +1960,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.6</v>
+        <v>0.6206896551724138</v>
       </c>
       <c r="C22">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D22">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1990,13 +1978,13 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="K22">
-        <v>0.3829787234042553</v>
+        <v>0.3272727272727273</v>
       </c>
       <c r="L22">
         <v>18</v>
@@ -2014,7 +2002,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>29</v>
+        <v>37</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -2022,13 +2010,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.6</v>
+        <v>0.6190476190476191</v>
       </c>
       <c r="C23">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D23">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -2040,19 +2028,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="K23">
-        <v>0.359375</v>
+        <v>0.32</v>
       </c>
       <c r="L23">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="M23">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -2064,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -2072,13 +2060,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.5391304347826087</v>
+        <v>0.6050420168067226</v>
       </c>
       <c r="C24">
-        <v>186</v>
+        <v>72</v>
       </c>
       <c r="D24">
-        <v>186</v>
+        <v>72</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -2090,31 +2078,31 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>159</v>
+        <v>47</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="K24">
-        <v>0.3559322033898305</v>
+        <v>0.3157894736842105</v>
       </c>
       <c r="L24">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="M24">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="N24">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q24">
-        <v>38</v>
+        <v>52</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -2122,13 +2110,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.5333333333333333</v>
+        <v>0.6</v>
       </c>
       <c r="C25">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="D25">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -2140,31 +2128,31 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="K25">
-        <v>0.3552631578947368</v>
+        <v>0.3125</v>
       </c>
       <c r="L25">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="M25">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="N25">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O25">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q25">
-        <v>49</v>
+        <v>88</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -2172,13 +2160,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.5301204819277109</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="C26">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="D26">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -2190,19 +2178,19 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="K26">
-        <v>0.3515625</v>
+        <v>0.3050847457627119</v>
       </c>
       <c r="L26">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="M26">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -2214,7 +2202,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>83</v>
+        <v>41</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -2222,13 +2210,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.5185185185185185</v>
+        <v>0.5517241379310345</v>
       </c>
       <c r="C27">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="D27">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -2240,19 +2228,19 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="K27">
-        <v>0.3426573426573427</v>
+        <v>0.2950819672131147</v>
       </c>
       <c r="L27">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="M27">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -2264,7 +2252,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>94</v>
+        <v>43</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -2272,13 +2260,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.5161290322580645</v>
+        <v>0.5391304347826087</v>
       </c>
       <c r="C28">
-        <v>16</v>
+        <v>186</v>
       </c>
       <c r="D28">
-        <v>16</v>
+        <v>186</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -2290,19 +2278,19 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>15</v>
+        <v>159</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="K28">
-        <v>0.3103448275862069</v>
+        <v>0.2753623188405797</v>
       </c>
       <c r="L28">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="M28">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -2314,7 +2302,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2322,13 +2310,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.5118110236220472</v>
+        <v>0.5370370370370371</v>
       </c>
       <c r="C29">
-        <v>65</v>
+        <v>29</v>
       </c>
       <c r="D29">
-        <v>65</v>
+        <v>29</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -2340,13 +2328,13 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>62</v>
+        <v>25</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="K29">
-        <v>0.304</v>
+        <v>0.2657342657342657</v>
       </c>
       <c r="L29">
         <v>38</v>
@@ -2364,7 +2352,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>87</v>
+        <v>105</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2372,13 +2360,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.509090909090909</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="C30">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="D30">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2390,31 +2378,31 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="K30">
-        <v>0.3</v>
+        <v>0.2648648648648649</v>
       </c>
       <c r="L30">
-        <v>15</v>
+        <v>49</v>
       </c>
       <c r="M30">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="N30">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O30">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q30">
-        <v>35</v>
+        <v>136</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2422,13 +2410,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.5</v>
+        <v>0.5301204819277109</v>
       </c>
       <c r="C31">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="D31">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2440,31 +2428,31 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="K31">
-        <v>0.2962962962962963</v>
+        <v>0.248995983935743</v>
       </c>
       <c r="L31">
-        <v>16</v>
+        <v>62</v>
       </c>
       <c r="M31">
-        <v>17</v>
+        <v>62</v>
       </c>
       <c r="N31">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O31">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q31">
-        <v>38</v>
+        <v>187</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2472,13 +2460,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.4897959183673469</v>
+        <v>0.5185185185185185</v>
       </c>
       <c r="C32">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D32">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2490,31 +2478,31 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="K32">
-        <v>0.2834008097165992</v>
+        <v>0.248</v>
       </c>
       <c r="L32">
-        <v>70</v>
+        <v>31</v>
       </c>
       <c r="M32">
-        <v>72</v>
+        <v>31</v>
       </c>
       <c r="N32">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O32">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q32">
-        <v>177</v>
+        <v>94</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -2522,13 +2510,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.4842105263157895</v>
+        <v>0.5116279069767442</v>
       </c>
       <c r="C33">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="D33">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2540,31 +2528,31 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>49</v>
+        <v>21</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="K33">
-        <v>0.2554347826086957</v>
+        <v>0.2393162393162393</v>
       </c>
       <c r="L33">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="M33">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="N33">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O33">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q33">
-        <v>137</v>
+        <v>89</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -2572,13 +2560,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.4814814814814815</v>
+        <v>0.5</v>
       </c>
       <c r="C34">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="D34">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2590,19 +2578,19 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="K34">
-        <v>0.242530755711775</v>
+        <v>0.234622144112478</v>
       </c>
       <c r="L34">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="M34">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="N34">
         <v>0.99</v>
@@ -2614,7 +2602,7 @@
         <v>1</v>
       </c>
       <c r="Q34">
-        <v>862</v>
+        <v>871</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -2622,13 +2610,13 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.4791666666666667</v>
+        <v>0.5</v>
       </c>
       <c r="C35">
-        <v>23</v>
+        <v>64</v>
       </c>
       <c r="D35">
-        <v>23</v>
+        <v>64</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2640,31 +2628,31 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>25</v>
+        <v>64</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="K35">
-        <v>0.24</v>
+        <v>0.2301587301587301</v>
       </c>
       <c r="L35">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M35">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="N35">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O35">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q35">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="36" spans="1:17">
@@ -2672,13 +2660,13 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.4609375</v>
+        <v>0.4881889763779528</v>
       </c>
       <c r="C36">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="D36">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -2690,10 +2678,10 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="K36">
         <v>0.2065217391304348</v>
@@ -2722,13 +2710,13 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.4603174603174603</v>
+        <v>0.4881516587677725</v>
       </c>
       <c r="C37">
-        <v>29</v>
+        <v>103</v>
       </c>
       <c r="D37">
-        <v>29</v>
+        <v>103</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -2740,19 +2728,19 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>34</v>
+        <v>108</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="K37">
-        <v>0.2051282051282051</v>
+        <v>0.1866295264623956</v>
       </c>
       <c r="L37">
-        <v>24</v>
+        <v>67</v>
       </c>
       <c r="M37">
-        <v>24</v>
+        <v>67</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2764,7 +2752,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>93</v>
+        <v>292</v>
       </c>
     </row>
     <row r="38" spans="1:17">
@@ -2772,13 +2760,13 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.4597156398104265</v>
+        <v>0.4838709677419355</v>
       </c>
       <c r="C38">
-        <v>97</v>
+        <v>15</v>
       </c>
       <c r="D38">
-        <v>97</v>
+        <v>15</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -2790,19 +2778,19 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>114</v>
+        <v>16</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="K38">
-        <v>0.1688311688311688</v>
+        <v>0.1839080459770115</v>
       </c>
       <c r="L38">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="M38">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2814,7 +2802,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>128</v>
+        <v>71</v>
       </c>
     </row>
     <row r="39" spans="1:17">
@@ -2822,13 +2810,13 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.453125</v>
+        <v>0.4761904761904762</v>
       </c>
       <c r="C39">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="D39">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -2840,31 +2828,31 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="K39">
-        <v>0.1650294695481336</v>
+        <v>0.1688311688311688</v>
       </c>
       <c r="L39">
-        <v>252</v>
+        <v>26</v>
       </c>
       <c r="M39">
-        <v>266</v>
+        <v>26</v>
       </c>
       <c r="N39">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O39">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q39">
-        <v>1275</v>
+        <v>128</v>
       </c>
     </row>
     <row r="40" spans="1:17">
@@ -2872,13 +2860,13 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.449438202247191</v>
+        <v>0.4727272727272727</v>
       </c>
       <c r="C40">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="D40">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -2890,31 +2878,31 @@
         <v>0</v>
       </c>
       <c r="H40">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="K40">
-        <v>0.1582278481012658</v>
+        <v>0.1528952504879636</v>
       </c>
       <c r="L40">
-        <v>25</v>
+        <v>235</v>
       </c>
       <c r="M40">
-        <v>28</v>
+        <v>239</v>
       </c>
       <c r="N40">
-        <v>0.89</v>
+        <v>0.98</v>
       </c>
       <c r="O40">
-        <v>0.11</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P40" t="b">
         <v>1</v>
       </c>
       <c r="Q40">
-        <v>133</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="41" spans="1:17">
@@ -2922,13 +2910,13 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.4477611940298508</v>
+        <v>0.4526315789473684</v>
       </c>
       <c r="C41">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="D41">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -2940,31 +2928,31 @@
         <v>0</v>
       </c>
       <c r="H41">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="K41">
-        <v>0.1564245810055866</v>
+        <v>0.14</v>
       </c>
       <c r="L41">
-        <v>56</v>
+        <v>21</v>
       </c>
       <c r="M41">
-        <v>57</v>
+        <v>22</v>
       </c>
       <c r="N41">
-        <v>0.98</v>
+        <v>0.95</v>
       </c>
       <c r="O41">
-        <v>0.02000000000000002</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P41" t="b">
         <v>1</v>
       </c>
       <c r="Q41">
-        <v>302</v>
+        <v>129</v>
       </c>
     </row>
     <row r="42" spans="1:17">
@@ -2972,13 +2960,13 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.4285714285714285</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="C42">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D42">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -2990,31 +2978,31 @@
         <v>0</v>
       </c>
       <c r="H42">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="K42">
-        <v>0.1559139784946237</v>
+        <v>0.1313672922252011</v>
       </c>
       <c r="L42">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="M42">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="N42">
-        <v>0.97</v>
+        <v>0.98</v>
       </c>
       <c r="O42">
-        <v>0.03000000000000003</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P42" t="b">
         <v>1</v>
       </c>
       <c r="Q42">
-        <v>314</v>
+        <v>324</v>
       </c>
     </row>
     <row r="43" spans="1:17">
@@ -3022,13 +3010,13 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.4210526315789473</v>
+        <v>0.4375</v>
       </c>
       <c r="C43">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="D43">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -3040,31 +3028,31 @@
         <v>0</v>
       </c>
       <c r="H43">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="K43">
-        <v>0.1487603305785124</v>
+        <v>0.1304347826086956</v>
       </c>
       <c r="L43">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="M43">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="N43">
-        <v>0.95</v>
+        <v>0.88</v>
       </c>
       <c r="O43">
-        <v>0.05000000000000004</v>
+        <v>0.12</v>
       </c>
       <c r="P43" t="b">
         <v>1</v>
       </c>
       <c r="Q43">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="44" spans="1:17">
@@ -3072,13 +3060,13 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.4186046511627907</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="C44">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D44">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -3090,31 +3078,31 @@
         <v>0</v>
       </c>
       <c r="H44">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="K44">
-        <v>0.1367521367521368</v>
+        <v>0.12109375</v>
       </c>
       <c r="L44">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="M44">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="N44">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O44">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P44" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q44">
-        <v>101</v>
+        <v>225</v>
       </c>
     </row>
     <row r="45" spans="1:17">
@@ -3122,13 +3110,13 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.4</v>
+        <v>0.4193548387096774</v>
       </c>
       <c r="C45">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D45">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -3143,28 +3131,28 @@
         <v>36</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="K45">
-        <v>0.125</v>
+        <v>0.11</v>
       </c>
       <c r="L45">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M45">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="N45">
-        <v>0.97</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O45">
-        <v>0.03000000000000003</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P45" t="b">
         <v>1</v>
       </c>
       <c r="Q45">
-        <v>224</v>
+        <v>267</v>
       </c>
     </row>
     <row r="46" spans="1:17">
@@ -3172,13 +3160,13 @@
         <v>51</v>
       </c>
       <c r="B46">
-        <v>0.3947368421052632</v>
+        <v>0.4137931034482759</v>
       </c>
       <c r="C46">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="D46">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -3190,31 +3178,31 @@
         <v>0</v>
       </c>
       <c r="H46">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="K46">
-        <v>0.1076388888888889</v>
+        <v>0.108359133126935</v>
       </c>
       <c r="L46">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="M46">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="N46">
-        <v>0.9399999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="O46">
-        <v>0.06000000000000005</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P46" t="b">
         <v>1</v>
       </c>
       <c r="Q46">
-        <v>257</v>
+        <v>288</v>
       </c>
     </row>
     <row r="47" spans="1:17">
@@ -3222,13 +3210,13 @@
         <v>52</v>
       </c>
       <c r="B47">
-        <v>0.3934426229508197</v>
+        <v>0.4107142857142857</v>
       </c>
       <c r="C47">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D47">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -3240,31 +3228,31 @@
         <v>0</v>
       </c>
       <c r="H47">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="K47">
-        <v>0.1052631578947368</v>
+        <v>0.1082802547770701</v>
       </c>
       <c r="L47">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="M47">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="N47">
-        <v>0.97</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="O47">
-        <v>0.03000000000000003</v>
+        <v>0.1899999999999999</v>
       </c>
       <c r="P47" t="b">
         <v>1</v>
       </c>
       <c r="Q47">
-        <v>289</v>
+        <v>140</v>
       </c>
     </row>
     <row r="48" spans="1:17">
@@ -3272,13 +3260,13 @@
         <v>53</v>
       </c>
       <c r="B48">
-        <v>0.3928571428571428</v>
+        <v>0.3968253968253968</v>
       </c>
       <c r="C48">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D48">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -3290,31 +3278,31 @@
         <v>0</v>
       </c>
       <c r="H48">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="K48">
-        <v>0.09595959595959595</v>
+        <v>0.1060606060606061</v>
       </c>
       <c r="L48">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M48">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="N48">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="O48">
-        <v>0.27</v>
+        <v>0.25</v>
       </c>
       <c r="P48" t="b">
         <v>1</v>
       </c>
       <c r="Q48">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="49" spans="1:17">
@@ -3322,13 +3310,13 @@
         <v>54</v>
       </c>
       <c r="B49">
-        <v>0.3809523809523809</v>
+        <v>0.3932584269662922</v>
       </c>
       <c r="C49">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="D49">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="E49">
         <v>0</v>
@@ -3340,31 +3328,31 @@
         <v>0</v>
       </c>
       <c r="H49">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="K49">
-        <v>0.09395973154362416</v>
+        <v>0.101078167115903</v>
       </c>
       <c r="L49">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="M49">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="N49">
-        <v>0.91</v>
+        <v>0.88</v>
       </c>
       <c r="O49">
-        <v>0.08999999999999997</v>
+        <v>0.12</v>
       </c>
       <c r="P49" t="b">
         <v>1</v>
       </c>
       <c r="Q49">
-        <v>675</v>
+        <v>667</v>
       </c>
     </row>
     <row r="50" spans="1:17">
@@ -3372,13 +3360,13 @@
         <v>55</v>
       </c>
       <c r="B50">
-        <v>0.3518518518518519</v>
+        <v>0.3888888888888889</v>
       </c>
       <c r="C50">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D50">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E50">
         <v>0</v>
@@ -3390,31 +3378,31 @@
         <v>0</v>
       </c>
       <c r="H50">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="K50">
-        <v>0.08936170212765958</v>
+        <v>0.09482758620689655</v>
       </c>
       <c r="L50">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M50">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="N50">
-        <v>0.95</v>
+        <v>0.85</v>
       </c>
       <c r="O50">
-        <v>0.05000000000000004</v>
+        <v>0.15</v>
       </c>
       <c r="P50" t="b">
         <v>1</v>
       </c>
       <c r="Q50">
-        <v>214</v>
+        <v>210</v>
       </c>
     </row>
     <row r="51" spans="1:17">
@@ -3422,13 +3410,13 @@
         <v>56</v>
       </c>
       <c r="B51">
-        <v>0.3513513513513514</v>
+        <v>0.375</v>
       </c>
       <c r="C51">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="D51">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="E51">
         <v>0</v>
@@ -3440,31 +3428,31 @@
         <v>0</v>
       </c>
       <c r="H51">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="K51">
-        <v>0.08709677419354839</v>
+        <v>0.09032258064516129</v>
       </c>
       <c r="L51">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M51">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N51">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="O51">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="P51" t="b">
         <v>1</v>
       </c>
       <c r="Q51">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="52" spans="1:17">
@@ -3472,13 +3460,13 @@
         <v>57</v>
       </c>
       <c r="B52">
-        <v>0.3392857142857143</v>
+        <v>0.375</v>
       </c>
       <c r="C52">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D52">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E52">
         <v>0</v>
@@ -3490,31 +3478,31 @@
         <v>0</v>
       </c>
       <c r="H52">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="K52">
-        <v>0.08445945945945946</v>
+        <v>0.08196721311475409</v>
       </c>
       <c r="L52">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="M52">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="N52">
-        <v>0.8100000000000001</v>
+        <v>0.62</v>
       </c>
       <c r="O52">
-        <v>0.1899999999999999</v>
+        <v>0.38</v>
       </c>
       <c r="P52" t="b">
         <v>1</v>
       </c>
       <c r="Q52">
-        <v>271</v>
+        <v>168</v>
       </c>
     </row>
     <row r="53" spans="1:17">
@@ -3522,13 +3510,13 @@
         <v>58</v>
       </c>
       <c r="B53">
-        <v>0.3392857142857143</v>
+        <v>0.3712871287128713</v>
       </c>
       <c r="C53">
-        <v>19</v>
+        <v>75</v>
       </c>
       <c r="D53">
-        <v>19</v>
+        <v>75</v>
       </c>
       <c r="E53">
         <v>0</v>
@@ -3540,31 +3528,31 @@
         <v>0</v>
       </c>
       <c r="H53">
-        <v>37</v>
+        <v>127</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>129</v>
+        <v>181</v>
       </c>
       <c r="K53">
-        <v>0.08088235294117647</v>
+        <v>0.0798611111111111</v>
       </c>
       <c r="L53">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M53">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="N53">
-        <v>0.58</v>
+        <v>0.92</v>
       </c>
       <c r="O53">
-        <v>0.42</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="P53" t="b">
         <v>1</v>
       </c>
       <c r="Q53">
-        <v>250</v>
+        <v>265</v>
       </c>
     </row>
     <row r="54" spans="1:17">
@@ -3572,49 +3560,49 @@
         <v>59</v>
       </c>
       <c r="B54">
-        <v>0.3387096774193548</v>
+        <v>0.3666666666666666</v>
       </c>
       <c r="C54">
+        <v>22</v>
+      </c>
+      <c r="D54">
+        <v>22</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+      <c r="F54">
+        <v>1</v>
+      </c>
+      <c r="G54" t="b">
+        <v>0</v>
+      </c>
+      <c r="H54">
+        <v>38</v>
+      </c>
+      <c r="J54" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="K54">
+        <v>0.07664233576642336</v>
+      </c>
+      <c r="L54">
         <v>21</v>
       </c>
-      <c r="D54">
-        <v>21</v>
-      </c>
-      <c r="E54">
-        <v>0</v>
-      </c>
-      <c r="F54">
-        <v>1</v>
-      </c>
-      <c r="G54" t="b">
-        <v>0</v>
-      </c>
-      <c r="H54">
-        <v>41</v>
-      </c>
-      <c r="J54" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="K54">
-        <v>0.08021390374331551</v>
-      </c>
-      <c r="L54">
-        <v>15</v>
-      </c>
       <c r="M54">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="N54">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="O54">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
       <c r="P54" t="b">
         <v>1</v>
       </c>
       <c r="Q54">
-        <v>172</v>
+        <v>253</v>
       </c>
     </row>
     <row r="55" spans="1:17">
@@ -3622,13 +3610,13 @@
         <v>60</v>
       </c>
       <c r="B55">
-        <v>0.3366336633663367</v>
+        <v>0.3432835820895522</v>
       </c>
       <c r="C55">
-        <v>68</v>
+        <v>23</v>
       </c>
       <c r="D55">
-        <v>68</v>
+        <v>23</v>
       </c>
       <c r="E55">
         <v>0</v>
@@ -3640,31 +3628,31 @@
         <v>0</v>
       </c>
       <c r="H55">
-        <v>134</v>
+        <v>44</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="K55">
-        <v>0.06788511749347259</v>
+        <v>0.06882591093117409</v>
       </c>
       <c r="L55">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="M55">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="N55">
-        <v>0.67</v>
+        <v>0.85</v>
       </c>
       <c r="O55">
-        <v>0.33</v>
+        <v>0.15</v>
       </c>
       <c r="P55" t="b">
         <v>1</v>
       </c>
       <c r="Q55">
-        <v>357</v>
+        <v>460</v>
       </c>
     </row>
     <row r="56" spans="1:17">
@@ -3675,10 +3663,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="C56">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D56">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E56">
         <v>0</v>
@@ -3690,31 +3678,31 @@
         <v>0</v>
       </c>
       <c r="H56">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="K56">
-        <v>0.06657018813314038</v>
+        <v>0.06544502617801047</v>
       </c>
       <c r="L56">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="M56">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="N56">
-        <v>0.77</v>
+        <v>0.64</v>
       </c>
       <c r="O56">
-        <v>0.23</v>
+        <v>0.36</v>
       </c>
       <c r="P56" t="b">
         <v>1</v>
       </c>
       <c r="Q56">
-        <v>645</v>
+        <v>357</v>
       </c>
     </row>
     <row r="57" spans="1:17">
@@ -3722,49 +3710,49 @@
         <v>62</v>
       </c>
       <c r="B57">
-        <v>0.3264248704663212</v>
+        <v>0.3163265306122449</v>
       </c>
       <c r="C57">
-        <v>63</v>
+        <v>31</v>
       </c>
       <c r="D57">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="E57">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="F57">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="G57" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H57">
-        <v>130</v>
+        <v>67</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="K57">
-        <v>0.05755395683453238</v>
+        <v>0.06323185011709602</v>
       </c>
       <c r="L57">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="M57">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="N57">
-        <v>0.78</v>
+        <v>0.82</v>
       </c>
       <c r="O57">
-        <v>0.22</v>
+        <v>0.18</v>
       </c>
       <c r="P57" t="b">
         <v>1</v>
       </c>
       <c r="Q57">
-        <v>524</v>
+        <v>400</v>
       </c>
     </row>
     <row r="58" spans="1:17">
@@ -3772,13 +3760,13 @@
         <v>63</v>
       </c>
       <c r="B58">
-        <v>0.3163265306122449</v>
+        <v>0.3162393162393162</v>
       </c>
       <c r="C58">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="D58">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="E58">
         <v>0</v>
@@ -3790,31 +3778,31 @@
         <v>0</v>
       </c>
       <c r="H58">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="K58">
-        <v>0.04897959183673469</v>
+        <v>0.06051873198847262</v>
       </c>
       <c r="L58">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="M58">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="N58">
-        <v>0.71</v>
+        <v>0.84</v>
       </c>
       <c r="O58">
-        <v>0.29</v>
+        <v>0.16</v>
       </c>
       <c r="P58" t="b">
         <v>1</v>
       </c>
       <c r="Q58">
-        <v>466</v>
+        <v>326</v>
       </c>
     </row>
     <row r="59" spans="1:17">
@@ -3822,13 +3810,13 @@
         <v>64</v>
       </c>
       <c r="B59">
-        <v>0.293103448275862</v>
+        <v>0.3108108108108108</v>
       </c>
       <c r="C59">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D59">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="E59">
         <v>0</v>
@@ -3840,31 +3828,31 @@
         <v>0</v>
       </c>
       <c r="H59">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="J59" s="1" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="K59">
-        <v>0.04716981132075472</v>
+        <v>0.05780346820809248</v>
       </c>
       <c r="L59">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="M59">
-        <v>29</v>
+        <v>53</v>
       </c>
       <c r="N59">
-        <v>0.6899999999999999</v>
+        <v>0.75</v>
       </c>
       <c r="O59">
-        <v>0.3100000000000001</v>
+        <v>0.25</v>
       </c>
       <c r="P59" t="b">
         <v>1</v>
       </c>
       <c r="Q59">
-        <v>404</v>
+        <v>652</v>
       </c>
     </row>
     <row r="60" spans="1:17">
@@ -3872,49 +3860,49 @@
         <v>65</v>
       </c>
       <c r="B60">
-        <v>0.2916666666666667</v>
+        <v>0.3092783505154639</v>
       </c>
       <c r="C60">
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="D60">
+        <v>60</v>
+      </c>
+      <c r="E60">
+        <v>0</v>
+      </c>
+      <c r="F60">
+        <v>1</v>
+      </c>
+      <c r="G60" t="b">
+        <v>0</v>
+      </c>
+      <c r="H60">
+        <v>134</v>
+      </c>
+      <c r="J60" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="K60">
+        <v>0.05215827338129497</v>
+      </c>
+      <c r="L60">
         <v>29</v>
       </c>
-      <c r="E60">
-        <v>0.03</v>
-      </c>
-      <c r="F60">
-        <v>0.97</v>
-      </c>
-      <c r="G60" t="b">
-        <v>1</v>
-      </c>
-      <c r="H60">
-        <v>68</v>
-      </c>
-      <c r="J60" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="K60">
-        <v>0.04610951008645533</v>
-      </c>
-      <c r="L60">
-        <v>16</v>
-      </c>
       <c r="M60">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="N60">
-        <v>0.8</v>
+        <v>0.76</v>
       </c>
       <c r="O60">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
       <c r="P60" t="b">
         <v>1</v>
       </c>
       <c r="Q60">
-        <v>331</v>
+        <v>527</v>
       </c>
     </row>
     <row r="61" spans="1:17">
@@ -3922,49 +3910,49 @@
         <v>66</v>
       </c>
       <c r="B61">
-        <v>0.2898089171974522</v>
+        <v>0.3</v>
       </c>
       <c r="C61">
-        <v>91</v>
+        <v>42</v>
       </c>
       <c r="D61">
-        <v>93</v>
+        <v>42</v>
       </c>
       <c r="E61">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="F61">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="G61" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H61">
-        <v>223</v>
+        <v>98</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="K61">
-        <v>0.0372960372960373</v>
+        <v>0.03348214285714286</v>
       </c>
       <c r="L61">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M61">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="N61">
-        <v>0.47</v>
+        <v>0.42</v>
       </c>
       <c r="O61">
-        <v>0.53</v>
+        <v>0.5800000000000001</v>
       </c>
       <c r="P61" t="b">
         <v>1</v>
       </c>
       <c r="Q61">
-        <v>413</v>
+        <v>433</v>
       </c>
     </row>
     <row r="62" spans="1:17">
@@ -3972,13 +3960,13 @@
         <v>67</v>
       </c>
       <c r="B62">
-        <v>0.2826086956521739</v>
+        <v>0.2898550724637681</v>
       </c>
       <c r="C62">
-        <v>78</v>
+        <v>20</v>
       </c>
       <c r="D62">
-        <v>78</v>
+        <v>20</v>
       </c>
       <c r="E62">
         <v>0</v>
@@ -3990,31 +3978,31 @@
         <v>0</v>
       </c>
       <c r="H62">
-        <v>198</v>
+        <v>49</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="K62">
-        <v>0.02690582959641256</v>
+        <v>0.03310344827586207</v>
       </c>
       <c r="L62">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="M62">
-        <v>41</v>
+        <v>93</v>
       </c>
       <c r="N62">
-        <v>0.44</v>
+        <v>0.26</v>
       </c>
       <c r="O62">
-        <v>0.5600000000000001</v>
+        <v>0.74</v>
       </c>
       <c r="P62" t="b">
         <v>1</v>
       </c>
       <c r="Q62">
-        <v>651</v>
+        <v>701</v>
       </c>
     </row>
     <row r="63" spans="1:17">
@@ -4022,49 +4010,49 @@
         <v>68</v>
       </c>
       <c r="B63">
-        <v>0.2702702702702703</v>
+        <v>0.2876712328767123</v>
       </c>
       <c r="C63">
+        <v>21</v>
+      </c>
+      <c r="D63">
+        <v>22</v>
+      </c>
+      <c r="E63">
+        <v>0.05</v>
+      </c>
+      <c r="F63">
+        <v>0.95</v>
+      </c>
+      <c r="G63" t="b">
+        <v>1</v>
+      </c>
+      <c r="H63">
+        <v>52</v>
+      </c>
+      <c r="J63" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="K63">
+        <v>0.02971768202080238</v>
+      </c>
+      <c r="L63">
         <v>20</v>
       </c>
-      <c r="D63">
-        <v>20</v>
-      </c>
-      <c r="E63">
-        <v>0</v>
-      </c>
-      <c r="F63">
-        <v>1</v>
-      </c>
-      <c r="G63" t="b">
-        <v>0</v>
-      </c>
-      <c r="H63">
-        <v>54</v>
-      </c>
-      <c r="J63" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="K63">
-        <v>0.02646239554317549</v>
-      </c>
-      <c r="L63">
-        <v>19</v>
-      </c>
       <c r="M63">
-        <v>95</v>
+        <v>39</v>
       </c>
       <c r="N63">
-        <v>0.2</v>
+        <v>0.51</v>
       </c>
       <c r="O63">
-        <v>0.8</v>
+        <v>0.49</v>
       </c>
       <c r="P63" t="b">
         <v>1</v>
       </c>
       <c r="Q63">
-        <v>699</v>
+        <v>653</v>
       </c>
     </row>
     <row r="64" spans="1:17">
@@ -4072,13 +4060,13 @@
         <v>69</v>
       </c>
       <c r="B64">
-        <v>0.2666666666666667</v>
+        <v>0.285</v>
       </c>
       <c r="C64">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="D64">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="E64">
         <v>0</v>
@@ -4090,7 +4078,7 @@
         <v>0</v>
       </c>
       <c r="H64">
-        <v>44</v>
+        <v>143</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -4098,25 +4086,25 @@
         <v>70</v>
       </c>
       <c r="B65">
-        <v>0.2563291139240506</v>
+        <v>0.2837837837837838</v>
       </c>
       <c r="C65">
-        <v>81</v>
+        <v>21</v>
       </c>
       <c r="D65">
-        <v>81</v>
+        <v>22</v>
       </c>
       <c r="E65">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="F65">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="G65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H65">
-        <v>235</v>
+        <v>53</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -4124,13 +4112,13 @@
         <v>71</v>
       </c>
       <c r="B66">
-        <v>0.2533333333333334</v>
+        <v>0.2783505154639175</v>
       </c>
       <c r="C66">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="D66">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="E66">
         <v>0</v>
@@ -4142,7 +4130,7 @@
         <v>0</v>
       </c>
       <c r="H66">
-        <v>56</v>
+        <v>70</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -4150,13 +4138,13 @@
         <v>72</v>
       </c>
       <c r="B67">
-        <v>0.2478632478632479</v>
+        <v>0.2783505154639175</v>
       </c>
       <c r="C67">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D67">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E67">
         <v>0</v>
@@ -4168,7 +4156,7 @@
         <v>0</v>
       </c>
       <c r="H67">
-        <v>88</v>
+        <v>70</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -4176,25 +4164,25 @@
         <v>73</v>
       </c>
       <c r="B68">
-        <v>0.2471264367816092</v>
+        <v>0.2753623188405797</v>
       </c>
       <c r="C68">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="D68">
-        <v>44</v>
+        <v>76</v>
       </c>
       <c r="E68">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="F68">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="G68" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H68">
-        <v>131</v>
+        <v>200</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -4202,25 +4190,25 @@
         <v>74</v>
       </c>
       <c r="B69">
-        <v>0.244047619047619</v>
+        <v>0.2702702702702703</v>
       </c>
       <c r="C69">
-        <v>164</v>
+        <v>20</v>
       </c>
       <c r="D69">
-        <v>166</v>
+        <v>20</v>
       </c>
       <c r="E69">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="F69">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="G69" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H69">
-        <v>508</v>
+        <v>54</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -4228,13 +4216,13 @@
         <v>75</v>
       </c>
       <c r="B70">
-        <v>0.2432432432432433</v>
+        <v>0.2622950819672131</v>
       </c>
       <c r="C70">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D70">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E70">
         <v>0</v>
@@ -4246,7 +4234,7 @@
         <v>0</v>
       </c>
       <c r="H70">
-        <v>56</v>
+        <v>45</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -4254,25 +4242,25 @@
         <v>76</v>
       </c>
       <c r="B71">
-        <v>0.2429906542056075</v>
+        <v>0.2560975609756098</v>
       </c>
       <c r="C71">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D71">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E71">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="F71">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="G71" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H71">
-        <v>81</v>
+        <v>61</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -4280,25 +4268,25 @@
         <v>77</v>
       </c>
       <c r="B72">
-        <v>0.2417582417582418</v>
+        <v>0.2523961661341853</v>
       </c>
       <c r="C72">
-        <v>22</v>
+        <v>79</v>
       </c>
       <c r="D72">
-        <v>22</v>
+        <v>82</v>
       </c>
       <c r="E72">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="F72">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="G72" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H72">
-        <v>69</v>
+        <v>234</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -4306,25 +4294,25 @@
         <v>78</v>
       </c>
       <c r="B73">
-        <v>0.2383177570093458</v>
+        <v>0.2470238095238095</v>
       </c>
       <c r="C73">
-        <v>51</v>
+        <v>166</v>
       </c>
       <c r="D73">
-        <v>51</v>
+        <v>168</v>
       </c>
       <c r="E73">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="F73">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="G73" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H73">
-        <v>163</v>
+        <v>506</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -4332,13 +4320,13 @@
         <v>79</v>
       </c>
       <c r="B74">
-        <v>0.2371134020618557</v>
+        <v>0.2463768115942029</v>
       </c>
       <c r="C74">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D74">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E74">
         <v>0</v>
@@ -4350,7 +4338,7 @@
         <v>0</v>
       </c>
       <c r="H74">
-        <v>74</v>
+        <v>52</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -4358,25 +4346,25 @@
         <v>80</v>
       </c>
       <c r="B75">
-        <v>0.2362204724409449</v>
+        <v>0.24</v>
       </c>
       <c r="C75">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="D75">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="E75">
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
       <c r="F75">
-        <v>0.97</v>
+        <v>0.95</v>
       </c>
       <c r="G75" t="b">
         <v>1</v>
       </c>
       <c r="H75">
-        <v>97</v>
+        <v>57</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -4384,25 +4372,25 @@
         <v>81</v>
       </c>
       <c r="B76">
-        <v>0.235632183908046</v>
+        <v>0.2358490566037736</v>
       </c>
       <c r="C76">
-        <v>82</v>
+        <v>25</v>
       </c>
       <c r="D76">
-        <v>82</v>
+        <v>27</v>
       </c>
       <c r="E76">
-        <v>0</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="F76">
-        <v>1</v>
+        <v>0.9299999999999999</v>
       </c>
       <c r="G76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H76">
-        <v>266</v>
+        <v>81</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -4410,25 +4398,25 @@
         <v>82</v>
       </c>
       <c r="B77">
-        <v>0.2297297297297297</v>
+        <v>0.2246835443037975</v>
       </c>
       <c r="C77">
-        <v>17</v>
+        <v>71</v>
       </c>
       <c r="D77">
-        <v>19</v>
+        <v>71</v>
       </c>
       <c r="E77">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="F77">
-        <v>0.89</v>
+        <v>1</v>
       </c>
       <c r="G77" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H77">
-        <v>57</v>
+        <v>245</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -4436,25 +4424,25 @@
         <v>83</v>
       </c>
       <c r="B78">
-        <v>0.2288135593220339</v>
+        <v>0.2241379310344828</v>
       </c>
       <c r="C78">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D78">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E78">
-        <v>0</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="F78">
-        <v>1</v>
+        <v>0.9299999999999999</v>
       </c>
       <c r="G78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H78">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -4462,25 +4450,25 @@
         <v>84</v>
       </c>
       <c r="B79">
-        <v>0.2285714285714286</v>
+        <v>0.2206572769953052</v>
       </c>
       <c r="C79">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="D79">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="E79">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="F79">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="G79" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H79">
-        <v>108</v>
+        <v>166</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -4488,25 +4476,25 @@
         <v>85</v>
       </c>
       <c r="B80">
-        <v>0.2285714285714286</v>
+        <v>0.2157894736842105</v>
       </c>
       <c r="C80">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="D80">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="E80">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="F80">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="G80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H80">
-        <v>54</v>
+        <v>149</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -4514,25 +4502,25 @@
         <v>86</v>
       </c>
       <c r="B81">
-        <v>0.2253521126760563</v>
+        <v>0.2138728323699422</v>
       </c>
       <c r="C81">
-        <v>16</v>
+        <v>74</v>
       </c>
       <c r="D81">
-        <v>16</v>
+        <v>76</v>
       </c>
       <c r="E81">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="F81">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="G81" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H81">
-        <v>55</v>
+        <v>272</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -4540,13 +4528,13 @@
         <v>87</v>
       </c>
       <c r="B82">
-        <v>0.225130890052356</v>
+        <v>0.2101910828025478</v>
       </c>
       <c r="C82">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="D82">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="E82">
         <v>0</v>
@@ -4558,7 +4546,7 @@
         <v>0</v>
       </c>
       <c r="H82">
-        <v>148</v>
+        <v>124</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -4566,25 +4554,25 @@
         <v>88</v>
       </c>
       <c r="B83">
-        <v>0.2205882352941176</v>
+        <v>0.2101769911504425</v>
       </c>
       <c r="C83">
-        <v>15</v>
+        <v>95</v>
       </c>
       <c r="D83">
-        <v>16</v>
+        <v>97</v>
       </c>
       <c r="E83">
-        <v>0.06</v>
+        <v>0.02</v>
       </c>
       <c r="F83">
-        <v>0.9399999999999999</v>
+        <v>0.98</v>
       </c>
       <c r="G83" t="b">
         <v>1</v>
       </c>
       <c r="H83">
-        <v>53</v>
+        <v>357</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -4592,13 +4580,13 @@
         <v>89</v>
       </c>
       <c r="B84">
-        <v>0.2195121951219512</v>
+        <v>0.2087912087912088</v>
       </c>
       <c r="C84">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D84">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E84">
         <v>0</v>
@@ -4610,7 +4598,7 @@
         <v>0</v>
       </c>
       <c r="H84">
-        <v>64</v>
+        <v>72</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -4618,25 +4606,25 @@
         <v>90</v>
       </c>
       <c r="B85">
-        <v>0.2168141592920354</v>
+        <v>0.1984126984126984</v>
       </c>
       <c r="C85">
-        <v>98</v>
+        <v>25</v>
       </c>
       <c r="D85">
-        <v>100</v>
+        <v>27</v>
       </c>
       <c r="E85">
-        <v>0.02</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="F85">
-        <v>0.98</v>
+        <v>0.9299999999999999</v>
       </c>
       <c r="G85" t="b">
         <v>1</v>
       </c>
       <c r="H85">
-        <v>354</v>
+        <v>101</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -4644,13 +4632,13 @@
         <v>91</v>
       </c>
       <c r="B86">
-        <v>0.205</v>
+        <v>0.1923076923076923</v>
       </c>
       <c r="C86">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="D86">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="E86">
         <v>0</v>
@@ -4662,7 +4650,7 @@
         <v>0</v>
       </c>
       <c r="H86">
-        <v>159</v>
+        <v>63</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -4670,25 +4658,25 @@
         <v>92</v>
       </c>
       <c r="B87">
-        <v>0.2038216560509554</v>
+        <v>0.1917293233082707</v>
       </c>
       <c r="C87">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="D87">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="E87">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="F87">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="G87" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H87">
-        <v>125</v>
+        <v>215</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -4696,25 +4684,25 @@
         <v>93</v>
       </c>
       <c r="B88">
-        <v>0.1924528301886793</v>
+        <v>0.1896551724137931</v>
       </c>
       <c r="C88">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="D88">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="E88">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="F88">
-        <v>0.96</v>
+        <v>0.97</v>
       </c>
       <c r="G88" t="b">
         <v>1</v>
       </c>
       <c r="H88">
-        <v>214</v>
+        <v>141</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -4722,13 +4710,13 @@
         <v>94</v>
       </c>
       <c r="B89">
-        <v>0.1923076923076923</v>
+        <v>0.1846153846153846</v>
       </c>
       <c r="C89">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="D89">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="E89">
         <v>0</v>
@@ -4740,7 +4728,7 @@
         <v>0</v>
       </c>
       <c r="H89">
-        <v>63</v>
+        <v>106</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -4748,25 +4736,25 @@
         <v>95</v>
       </c>
       <c r="B90">
-        <v>0.1904761904761905</v>
+        <v>0.1741935483870968</v>
       </c>
       <c r="C90">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="D90">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="E90">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="F90">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="G90" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H90">
-        <v>68</v>
+        <v>128</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -4774,25 +4762,25 @@
         <v>96</v>
       </c>
       <c r="B91">
-        <v>0.185792349726776</v>
+        <v>0.1708333333333333</v>
       </c>
       <c r="C91">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="D91">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="E91">
-        <v>0</v>
+        <v>0.16</v>
       </c>
       <c r="F91">
-        <v>1</v>
+        <v>0.84</v>
       </c>
       <c r="G91" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H91">
-        <v>149</v>
+        <v>199</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -4800,25 +4788,25 @@
         <v>97</v>
       </c>
       <c r="B92">
-        <v>0.1832460732984293</v>
+        <v>0.1693989071038251</v>
       </c>
       <c r="C92">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D92">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="E92">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="F92">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="G92" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H92">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -4826,25 +4814,25 @@
         <v>98</v>
       </c>
       <c r="B93">
-        <v>0.18</v>
+        <v>0.1683168316831683</v>
       </c>
       <c r="C93">
+        <v>17</v>
+      </c>
+      <c r="D93">
         <v>18</v>
       </c>
-      <c r="D93">
-        <v>20</v>
-      </c>
       <c r="E93">
-        <v>0.1</v>
+        <v>0.06</v>
       </c>
       <c r="F93">
-        <v>0.9</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="G93" t="b">
         <v>1</v>
       </c>
       <c r="H93">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -4852,25 +4840,25 @@
         <v>99</v>
       </c>
       <c r="B94">
-        <v>0.1764705882352941</v>
+        <v>0.1648351648351648</v>
       </c>
       <c r="C94">
-        <v>27</v>
+        <v>60</v>
       </c>
       <c r="D94">
-        <v>28</v>
+        <v>61</v>
       </c>
       <c r="E94">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="F94">
-        <v>0.96</v>
+        <v>0.98</v>
       </c>
       <c r="G94" t="b">
         <v>1</v>
       </c>
       <c r="H94">
-        <v>126</v>
+        <v>304</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -4878,25 +4866,25 @@
         <v>100</v>
       </c>
       <c r="B95">
-        <v>0.1683168316831683</v>
+        <v>0.1626506024096386</v>
       </c>
       <c r="C95">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="D95">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="E95">
-        <v>0.06</v>
+        <v>0.16</v>
       </c>
       <c r="F95">
-        <v>0.9399999999999999</v>
+        <v>0.84</v>
       </c>
       <c r="G95" t="b">
         <v>1</v>
       </c>
       <c r="H95">
-        <v>84</v>
+        <v>139</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -4904,25 +4892,25 @@
         <v>101</v>
       </c>
       <c r="B96">
-        <v>0.1559633027522936</v>
+        <v>0.1559139784946237</v>
       </c>
       <c r="C96">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="D96">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="E96">
-        <v>0</v>
+        <v>0.09</v>
       </c>
       <c r="F96">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="G96" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H96">
-        <v>92</v>
+        <v>157</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -4930,25 +4918,25 @@
         <v>102</v>
       </c>
       <c r="B97">
-        <v>0.155688622754491</v>
+        <v>0.15</v>
       </c>
       <c r="C97">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="D97">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="E97">
-        <v>0.13</v>
+        <v>0.17</v>
       </c>
       <c r="F97">
-        <v>0.87</v>
+        <v>0.83</v>
       </c>
       <c r="G97" t="b">
         <v>1</v>
       </c>
       <c r="H97">
-        <v>141</v>
+        <v>85</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -4956,25 +4944,25 @@
         <v>103</v>
       </c>
       <c r="B98">
-        <v>0.1522633744855967</v>
+        <v>0.1485714285714286</v>
       </c>
       <c r="C98">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="D98">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="E98">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="F98">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="G98" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H98">
-        <v>206</v>
+        <v>149</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -4982,25 +4970,25 @@
         <v>104</v>
       </c>
       <c r="B99">
-        <v>0.1506849315068493</v>
+        <v>0.1467889908256881</v>
       </c>
       <c r="C99">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D99">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E99">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="F99">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="G99" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H99">
-        <v>124</v>
+        <v>93</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -5008,13 +4996,13 @@
         <v>105</v>
       </c>
       <c r="B100">
-        <v>0.1485714285714286</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="C100">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D100">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E100">
         <v>0</v>
@@ -5026,7 +5014,7 @@
         <v>0</v>
       </c>
       <c r="H100">
-        <v>149</v>
+        <v>132</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -5034,25 +5022,25 @@
         <v>106</v>
       </c>
       <c r="B101">
-        <v>0.1484375</v>
+        <v>0.1413612565445026</v>
       </c>
       <c r="C101">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="D101">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="E101">
-        <v>0.14</v>
+        <v>0.04</v>
       </c>
       <c r="F101">
-        <v>0.86</v>
+        <v>0.96</v>
       </c>
       <c r="G101" t="b">
         <v>1</v>
       </c>
       <c r="H101">
-        <v>109</v>
+        <v>164</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -5060,25 +5048,25 @@
         <v>107</v>
       </c>
       <c r="B102">
-        <v>0.1474358974358974</v>
+        <v>0.1408450704225352</v>
       </c>
       <c r="C102">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="D102">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="E102">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="F102">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="G102" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H102">
-        <v>133</v>
+        <v>305</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -5086,25 +5074,25 @@
         <v>108</v>
       </c>
       <c r="B103">
-        <v>0.1461538461538462</v>
+        <v>0.1369426751592357</v>
       </c>
       <c r="C103">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="D103">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="E103">
-        <v>0</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="F103">
-        <v>1</v>
+        <v>0.9299999999999999</v>
       </c>
       <c r="G103" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H103">
-        <v>111</v>
+        <v>271</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -5112,25 +5100,25 @@
         <v>109</v>
       </c>
       <c r="B104">
-        <v>0.1420118343195266</v>
+        <v>0.1351351351351351</v>
       </c>
       <c r="C104">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="D104">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="E104">
-        <v>0.14</v>
+        <v>0.06</v>
       </c>
       <c r="F104">
-        <v>0.86</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="G104" t="b">
         <v>1</v>
       </c>
       <c r="H104">
-        <v>145</v>
+        <v>96</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -5138,25 +5126,25 @@
         <v>110</v>
       </c>
       <c r="B105">
-        <v>0.1390374331550802</v>
+        <v>0.1301369863013699</v>
       </c>
       <c r="C105">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="D105">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="E105">
-        <v>0.07000000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="F105">
-        <v>0.9299999999999999</v>
+        <v>0.9</v>
       </c>
       <c r="G105" t="b">
         <v>1</v>
       </c>
       <c r="H105">
-        <v>161</v>
+        <v>127</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -5164,25 +5152,25 @@
         <v>111</v>
       </c>
       <c r="B106">
-        <v>0.1359773371104816</v>
+        <v>0.126984126984127</v>
       </c>
       <c r="C106">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="D106">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="E106">
-        <v>0.04</v>
+        <v>0.23</v>
       </c>
       <c r="F106">
-        <v>0.96</v>
+        <v>0.77</v>
       </c>
       <c r="G106" t="b">
         <v>1</v>
       </c>
       <c r="H106">
-        <v>305</v>
+        <v>165</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -5190,25 +5178,25 @@
         <v>112</v>
       </c>
       <c r="B107">
-        <v>0.1339285714285714</v>
+        <v>0.1258992805755396</v>
       </c>
       <c r="C107">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="D107">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="E107">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="F107">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="G107" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H107">
-        <v>97</v>
+        <v>243</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -5216,25 +5204,25 @@
         <v>113</v>
       </c>
       <c r="B108">
-        <v>0.1322314049586777</v>
+        <v>0.1238738738738739</v>
       </c>
       <c r="C108">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="D108">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="E108">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="F108">
-        <v>0.96</v>
+        <v>0.92</v>
       </c>
       <c r="G108" t="b">
         <v>1</v>
       </c>
       <c r="H108">
-        <v>315</v>
+        <v>389</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -5242,25 +5230,25 @@
         <v>114</v>
       </c>
       <c r="B109">
-        <v>0.1290322580645161</v>
+        <v>0.1190082644628099</v>
       </c>
       <c r="C109">
-        <v>36</v>
+        <v>72</v>
       </c>
       <c r="D109">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="E109">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="F109">
-        <v>0.97</v>
+        <v>0.96</v>
       </c>
       <c r="G109" t="b">
         <v>1</v>
       </c>
       <c r="H109">
-        <v>243</v>
+        <v>533</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -5268,25 +5256,25 @@
         <v>115</v>
       </c>
       <c r="B110">
-        <v>0.1288659793814433</v>
+        <v>0.1169590643274854</v>
       </c>
       <c r="C110">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D110">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E110">
-        <v>0.07000000000000001</v>
+        <v>0.09</v>
       </c>
       <c r="F110">
-        <v>0.9299999999999999</v>
+        <v>0.91</v>
       </c>
       <c r="G110" t="b">
         <v>1</v>
       </c>
       <c r="H110">
-        <v>169</v>
+        <v>151</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -5294,25 +5282,25 @@
         <v>116</v>
       </c>
       <c r="B111">
-        <v>0.1219512195121951</v>
+        <v>0.1145038167938931</v>
       </c>
       <c r="C111">
         <v>15</v>
       </c>
       <c r="D111">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E111">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="F111">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="G111" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H111">
-        <v>108</v>
+        <v>116</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -5320,25 +5308,25 @@
         <v>117</v>
       </c>
       <c r="B112">
-        <v>0.1203007518796992</v>
+        <v>0.1141304347826087</v>
       </c>
       <c r="C112">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D112">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E112">
-        <v>0.11</v>
+        <v>0.09</v>
       </c>
       <c r="F112">
-        <v>0.89</v>
+        <v>0.91</v>
       </c>
       <c r="G112" t="b">
         <v>1</v>
       </c>
       <c r="H112">
-        <v>117</v>
+        <v>163</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -5346,25 +5334,25 @@
         <v>118</v>
       </c>
       <c r="B113">
-        <v>0.1196388261851016</v>
+        <v>0.1118012422360248</v>
       </c>
       <c r="C113">
-        <v>53</v>
+        <v>18</v>
       </c>
       <c r="D113">
-        <v>59</v>
+        <v>18</v>
       </c>
       <c r="E113">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="F113">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="G113" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H113">
-        <v>390</v>
+        <v>143</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -5372,25 +5360,25 @@
         <v>119</v>
       </c>
       <c r="B114">
-        <v>0.1182108626198083</v>
+        <v>0.1001540832049307</v>
       </c>
       <c r="C114">
-        <v>37</v>
+        <v>65</v>
       </c>
       <c r="D114">
-        <v>41</v>
+        <v>71</v>
       </c>
       <c r="E114">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="F114">
-        <v>0.9</v>
+        <v>0.92</v>
       </c>
       <c r="G114" t="b">
         <v>1</v>
       </c>
       <c r="H114">
-        <v>276</v>
+        <v>584</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -5398,25 +5386,25 @@
         <v>120</v>
       </c>
       <c r="B115">
-        <v>0.1118012422360248</v>
+        <v>0.09592326139088729</v>
       </c>
       <c r="C115">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="D115">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="E115">
-        <v>0</v>
+        <v>0.23</v>
       </c>
       <c r="F115">
-        <v>1</v>
+        <v>0.77</v>
       </c>
       <c r="G115" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H115">
-        <v>143</v>
+        <v>377</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -5424,25 +5412,25 @@
         <v>121</v>
       </c>
       <c r="B116">
-        <v>0.1064891846921797</v>
+        <v>0.09302325581395349</v>
       </c>
       <c r="C116">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="D116">
-        <v>71</v>
+        <v>18</v>
       </c>
       <c r="E116">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="F116">
-        <v>0.9</v>
+        <v>0.89</v>
       </c>
       <c r="G116" t="b">
         <v>1</v>
       </c>
       <c r="H116">
-        <v>537</v>
+        <v>156</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -5450,25 +5438,25 @@
         <v>122</v>
       </c>
       <c r="B117">
-        <v>0.09937888198757763</v>
+        <v>0.08961038961038961</v>
       </c>
       <c r="C117">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="D117">
-        <v>75</v>
+        <v>93</v>
       </c>
       <c r="E117">
-        <v>0.15</v>
+        <v>0.26</v>
       </c>
       <c r="F117">
-        <v>0.85</v>
+        <v>0.74</v>
       </c>
       <c r="G117" t="b">
         <v>1</v>
       </c>
       <c r="H117">
-        <v>580</v>
+        <v>701</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -5476,25 +5464,25 @@
         <v>123</v>
       </c>
       <c r="B118">
-        <v>0.09806451612903226</v>
+        <v>0.0880952380952381</v>
       </c>
       <c r="C118">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="D118">
-        <v>95</v>
+        <v>51</v>
       </c>
       <c r="E118">
-        <v>0.2</v>
+        <v>0.27</v>
       </c>
       <c r="F118">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="G118" t="b">
         <v>1</v>
       </c>
       <c r="H118">
-        <v>699</v>
+        <v>383</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -5502,25 +5490,25 @@
         <v>124</v>
       </c>
       <c r="B119">
-        <v>0.0947867298578199</v>
+        <v>0.07471264367816093</v>
       </c>
       <c r="C119">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="D119">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="E119">
-        <v>0.23</v>
+        <v>0.1</v>
       </c>
       <c r="F119">
-        <v>0.77</v>
+        <v>0.9</v>
       </c>
       <c r="G119" t="b">
         <v>1</v>
       </c>
       <c r="H119">
-        <v>382</v>
+        <v>322</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -5528,25 +5516,25 @@
         <v>125</v>
       </c>
       <c r="B120">
-        <v>0.09289617486338798</v>
+        <v>0.06578947368421052</v>
       </c>
       <c r="C120">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D120">
         <v>20</v>
       </c>
       <c r="E120">
-        <v>0.15</v>
+        <v>0.25</v>
       </c>
       <c r="F120">
-        <v>0.85</v>
+        <v>0.75</v>
       </c>
       <c r="G120" t="b">
         <v>1</v>
       </c>
       <c r="H120">
-        <v>166</v>
+        <v>213</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -5554,25 +5542,25 @@
         <v>126</v>
       </c>
       <c r="B121">
-        <v>0.09259259259259259</v>
+        <v>0.06275303643724696</v>
       </c>
       <c r="C121">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="D121">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="E121">
-        <v>0.29</v>
+        <v>0.24</v>
       </c>
       <c r="F121">
-        <v>0.71</v>
+        <v>0.76</v>
       </c>
       <c r="G121" t="b">
         <v>1</v>
       </c>
       <c r="H121">
-        <v>147</v>
+        <v>463</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -5580,25 +5568,25 @@
         <v>127</v>
       </c>
       <c r="B122">
-        <v>0.08333333333333333</v>
+        <v>0.05977011494252873</v>
       </c>
       <c r="C122">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="D122">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="E122">
-        <v>0.21</v>
+        <v>0.32</v>
       </c>
       <c r="F122">
-        <v>0.79</v>
+        <v>0.6799999999999999</v>
       </c>
       <c r="G122" t="b">
         <v>1</v>
       </c>
       <c r="H122">
-        <v>209</v>
+        <v>409</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -5606,25 +5594,25 @@
         <v>128</v>
       </c>
       <c r="B123">
-        <v>0.08254716981132075</v>
+        <v>0.04625550660792951</v>
       </c>
       <c r="C123">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="D123">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E123">
-        <v>0.12</v>
+        <v>0.42</v>
       </c>
       <c r="F123">
-        <v>0.88</v>
+        <v>0.5800000000000001</v>
       </c>
       <c r="G123" t="b">
         <v>1</v>
       </c>
       <c r="H123">
-        <v>389</v>
+        <v>433</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -5632,155 +5620,25 @@
         <v>129</v>
       </c>
       <c r="B124">
-        <v>0.06015037593984962</v>
+        <v>0.02827380952380952</v>
       </c>
       <c r="C124">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D124">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E124">
-        <v>0.58</v>
+        <v>0.51</v>
       </c>
       <c r="F124">
-        <v>0.42</v>
+        <v>0.49</v>
       </c>
       <c r="G124" t="b">
         <v>1</v>
       </c>
       <c r="H124">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8">
-      <c r="A125" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="B125">
-        <v>0.05730659025787966</v>
-      </c>
-      <c r="C125">
-        <v>20</v>
-      </c>
-      <c r="D125">
-        <v>22</v>
-      </c>
-      <c r="E125">
-        <v>0.09</v>
-      </c>
-      <c r="F125">
-        <v>0.91</v>
-      </c>
-      <c r="G125" t="b">
-        <v>1</v>
-      </c>
-      <c r="H125">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8">
-      <c r="A126" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="B126">
-        <v>0.05020080321285141</v>
-      </c>
-      <c r="C126">
-        <v>25</v>
-      </c>
-      <c r="D126">
-        <v>31</v>
-      </c>
-      <c r="E126">
-        <v>0.19</v>
-      </c>
-      <c r="F126">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="G126" t="b">
-        <v>1</v>
-      </c>
-      <c r="H126">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8">
-      <c r="A127" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="B127">
-        <v>0.04176334106728538</v>
-      </c>
-      <c r="C127">
-        <v>18</v>
-      </c>
-      <c r="D127">
-        <v>34</v>
-      </c>
-      <c r="E127">
-        <v>0.47</v>
-      </c>
-      <c r="F127">
-        <v>0.53</v>
-      </c>
-      <c r="G127" t="b">
-        <v>1</v>
-      </c>
-      <c r="H127">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8">
-      <c r="A128" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="B128">
-        <v>0.03703703703703703</v>
-      </c>
-      <c r="C128">
-        <v>17</v>
-      </c>
-      <c r="D128">
-        <v>27</v>
-      </c>
-      <c r="E128">
-        <v>0.37</v>
-      </c>
-      <c r="F128">
-        <v>0.63</v>
-      </c>
-      <c r="G128" t="b">
-        <v>1</v>
-      </c>
-      <c r="H128">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8">
-      <c r="A129" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="B129">
-        <v>0.03412462908011869</v>
-      </c>
-      <c r="C129">
-        <v>23</v>
-      </c>
-      <c r="D129">
-        <v>41</v>
-      </c>
-      <c r="E129">
-        <v>0.44</v>
-      </c>
-      <c r="F129">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="G129" t="b">
-        <v>1</v>
-      </c>
-      <c r="H129">
-        <v>651</v>
+        <v>653</v>
       </c>
     </row>
   </sheetData>
